--- a/backtest/doublesort 10x10 statistics.xlsx
+++ b/backtest/doublesort 10x10 statistics.xlsx
@@ -102,13 +102,13 @@
         <v>-6.0834029909122895</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.018430085318614658</v>
+        <v>-0.018430085318614654</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.19178801902062761</v>
+        <v>-0.19178801902062748</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.0328195605997528</v>
+        <v>-1.0295541254744047</v>
       </c>
     </row>
     <row r="3">
@@ -122,10 +122,10 @@
         <v>-0.01702625498104974</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.28434306492715156</v>
+        <v>-0.28434306492715106</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.0356024177279088</v>
+        <v>-1.030531865406301</v>
       </c>
     </row>
     <row r="4">
@@ -136,13 +136,13 @@
         <v>-3.8398282234293846</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.012070356393810164</v>
+        <v>-0.012070356393810183</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.36704031190242753</v>
+        <v>-0.36704031190242725</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.7220918245426845</v>
+        <v>-0.7192546397724542</v>
       </c>
     </row>
     <row r="5">
@@ -153,13 +153,13 @@
         <v>-3.4454626405193385</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.011664660676662395</v>
+        <v>-0.011664660676662398</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.31084242903344944</v>
+        <v>-0.31084242903344894</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.6669960626646411</v>
+        <v>-0.665647786686632</v>
       </c>
     </row>
     <row r="6">
@@ -170,13 +170,13 @@
         <v>-2.4040112453408216</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.007348529680787367</v>
+        <v>-0.007348529680787371</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.35537711197025385</v>
+        <v>-0.35537711197025373</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.5243932146213612</v>
+        <v>-0.5233055937015063</v>
       </c>
     </row>
     <row r="7">
@@ -187,13 +187,13 @@
         <v>-2.5053267252791493</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.00890205775055875</v>
+        <v>-0.008902057750558754</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.35534928597626736</v>
+        <v>-0.3553492859762669</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.5165085571489404</v>
+        <v>-0.5151466238212832</v>
       </c>
     </row>
     <row r="8">
@@ -204,13 +204,13 @@
         <v>-1.5607912048760515</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.006464336161473683</v>
+        <v>-0.00646433616147369</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3221451410839233</v>
+        <v>-0.32214514108392267</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.4102875492246198</v>
+        <v>-0.41025240441477817</v>
       </c>
     </row>
     <row r="9">
@@ -221,13 +221,13 @@
         <v>-1.6961573499913343</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0048139206596374716</v>
+        <v>-0.004813920659637472</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2870454344507334</v>
+        <v>-0.28704543445073327</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.4237460115111741</v>
+        <v>-0.4230862025720619</v>
       </c>
     </row>
     <row r="10">
@@ -238,13 +238,13 @@
         <v>0.6396826121888577</v>
       </c>
       <c r="C10" t="n">
-        <v>-9.442343852826565E-4</v>
+        <v>-9.442343852826624E-4</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3271425752605357</v>
+        <v>-0.3271425752605356</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.10564180870466634</v>
+        <v>-0.10555006737490266</v>
       </c>
     </row>
     <row r="11">
@@ -255,13 +255,13 @@
         <v>3.7871670645563316</v>
       </c>
       <c r="C11" t="n">
-        <v>0.009396302118523077</v>
+        <v>0.009396302118523069</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.31223928692984804</v>
+        <v>-0.31223928692984737</v>
       </c>
       <c r="E11" t="n">
-        <v>0.3405535886830996</v>
+        <v>0.34003347810592727</v>
       </c>
     </row>
   </sheetData>
